--- a/Training/LSTM_ETH_result1.xlsx
+++ b/Training/LSTM_ETH_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>26.66333400372617</v>
+        <v>32.28074022588687</v>
       </c>
       <c r="F1" t="n">
-        <v>22.81678670411559</v>
+        <v>27.84062887357341</v>
       </c>
       <c r="G1" t="n">
-        <v>1.720128841716916</v>
+        <v>2.118655724364392</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>29.70557573993595</v>
+        <v>31.88164954186993</v>
       </c>
       <c r="F2" t="n">
-        <v>25.52038370510248</v>
+        <v>27.46823734996785</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9424010351611</v>
+        <v>2.095658115369466</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>38.94125763678895</v>
+        <v>34.38367725038192</v>
       </c>
       <c r="F3" t="n">
-        <v>33.87607608416264</v>
+        <v>29.75572810576745</v>
       </c>
       <c r="G3" t="n">
-        <v>2.616998300629657</v>
+        <v>2.284698641334845</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>24.28253662326555</v>
+        <v>18.15212772354494</v>
       </c>
       <c r="F4" t="n">
-        <v>21.35320544961279</v>
+        <v>13.4533597386435</v>
       </c>
       <c r="G4" t="n">
-        <v>1.518091113585118</v>
+        <v>0.933836963686932</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>20.87109680977355</v>
+        <v>21.12823122701607</v>
       </c>
       <c r="F5" t="n">
-        <v>17.24329614421978</v>
+        <v>17.55571001415359</v>
       </c>
       <c r="G5" t="n">
-        <v>1.260270625669782</v>
+        <v>1.282077880631977</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>19.87052771210348</v>
+        <v>20.29787809372531</v>
       </c>
       <c r="F6" t="n">
-        <v>16.27840496902391</v>
+        <v>16.68370513647599</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190795038982168</v>
+        <v>1.218135592954001</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>21.71598523428441</v>
+        <v>15.98661673588873</v>
       </c>
       <c r="F7" t="n">
-        <v>18.53064399840902</v>
+        <v>11.02302479171025</v>
       </c>
       <c r="G7" t="n">
-        <v>1.316006240143733</v>
+        <v>0.7512144885048506</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>15.84489845270009</v>
+        <v>16.93410594080901</v>
       </c>
       <c r="F8" t="n">
-        <v>11.29462920362781</v>
+        <v>12.48422455802614</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7939789963087123</v>
+        <v>0.8739217508262198</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>16.51441597713709</v>
+        <v>15.93485248963505</v>
       </c>
       <c r="F9" t="n">
-        <v>12.32721711817439</v>
+        <v>10.95320051694326</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8514560069729206</v>
+        <v>0.7500023204733112</v>
       </c>
     </row>
   </sheetData>
